--- a/LBO_model.xlsx
+++ b/LBO_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be179e13e234b8e/Documents/MATLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opinhas\LBO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{8DCBD7D1-3118-47FA-9EA7-F4C3661576CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BFE9FA3-A23E-438A-9F7F-6B90591B1D6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E525CE9A-7CDA-4D3E-891F-6C2EF4CACAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5016" yWindow="5016" windowWidth="27648" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Model" sheetId="3" r:id="rId1"/>
@@ -368,12 +368,12 @@
     <numFmt numFmtId="172" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="173" formatCode="&quot;L + &quot;#,##0.0%_);\(#,##0.0%\);\-_)"/>
     <numFmt numFmtId="174" formatCode="0.0%"/>
-    <numFmt numFmtId="176" formatCode="#,##0.000000000000_);\(#,##0.000000000000\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_);\(#,##0.00\);\-_)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0000_);\(#,##0.0000\);\-_)"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00000\x"/>
-    <numFmt numFmtId="186" formatCode="#,##0.000%;\(#,##0.000%\);\-"/>
-    <numFmt numFmtId="188" formatCode="#,##0.0000\x_);\(#,##0.0000\x\);\-_)"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000000000000_);\(#,##0.000000000000\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);\(#,##0.00\);\-_)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000_);\(#,##0.0000\);\-_)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00000\x"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000%;\(#,##0.000%\);\-"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000\x_);\(#,##0.0000\x\);\-_)"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -896,7 +896,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="169" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -934,25 +934,25 @@
     <xf numFmtId="165" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="17" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -964,29 +964,29 @@
     <xf numFmtId="171" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="17" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="17" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1019,10 +1019,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1314,22 +1310,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:U101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B36" zoomScale="127" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="127" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="J60" sqref="J60:N63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="9.77734375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.77734375" style="2"/>
-    <col min="21" max="25" width="9.77734375" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9.77734375" style="2"/>
+    <col min="1" max="19" width="9.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="2"/>
+    <col min="21" max="25" width="9.7109375" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B2" s="81">
         <v>1</v>
       </c>
@@ -1356,7 +1352,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="I3" s="5"/>
       <c r="L3" s="3"/>
@@ -1370,7 +1366,7 @@
       <c r="R3" s="25"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="89" t="s">
         <v>20</v>
       </c>
@@ -1410,7 +1406,7 @@
       </c>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="89" t="s">
         <v>77</v>
       </c>
@@ -1446,7 +1442,7 @@
       </c>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="2:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="89" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1480,7 @@
       </c>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="2:19" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="89" t="s">
         <v>24</v>
       </c>
@@ -1523,7 +1519,7 @@
       </c>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="E8" s="4"/>
@@ -1558,7 +1554,7 @@
       </c>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="89" t="s">
         <v>45</v>
       </c>
@@ -1596,7 +1592,7 @@
       </c>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="91" t="s">
         <v>46</v>
@@ -1619,7 +1615,7 @@
       <c r="L10" s="3"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="89" t="s">
         <v>78</v>
       </c>
@@ -1647,7 +1643,7 @@
       <c r="R11" s="25"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="21"/>
       <c r="I12" s="5"/>
@@ -1678,7 +1674,7 @@
       </c>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="D13" s="21"/>
       <c r="I13" s="5"/>
@@ -1705,7 +1701,7 @@
       </c>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="D14" s="21"/>
       <c r="I14" s="5"/>
@@ -1733,7 +1729,7 @@
       </c>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="D15" s="21"/>
       <c r="I15" s="22"/>
@@ -1761,7 +1757,7 @@
       </c>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="129" t="s">
         <v>80</v>
       </c>
@@ -1801,7 +1797,7 @@
       </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="136" t="s">
         <v>81</v>
       </c>
@@ -1841,7 +1837,7 @@
       </c>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="2:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="29"/>
       <c r="D18" s="53"/>
       <c r="E18" s="8"/>
@@ -1858,12 +1854,12 @@
       <c r="R18" s="7"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="4"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B20" s="81">
         <v>2</v>
       </c>
@@ -1882,7 +1878,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="69" t="s">
         <v>42</v>
@@ -1903,7 +1899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="89" t="s">
         <v>2</v>
       </c>
@@ -1934,7 +1930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="89" t="s">
         <v>5</v>
       </c>
@@ -1949,7 +1945,7 @@
         <v>0.02</v>
       </c>
       <c r="H23" s="103">
-        <f t="shared" ref="H22:H31" si="5">IFERROR(F23/$F$32,0)</f>
+        <f t="shared" ref="H23:H31" si="5">IFERROR(F23/$F$32,0)</f>
         <v>0.16193204900412733</v>
       </c>
       <c r="J23" s="90" t="s">
@@ -1963,7 +1959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="89" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +1989,7 @@
       </c>
       <c r="O24" s="47"/>
     </row>
-    <row r="25" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="89" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2014,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="26" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="89" t="s">
         <v>56</v>
       </c>
@@ -2043,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="89" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2059,7 @@
       </c>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="94" t="s">
         <v>44</v>
@@ -2084,7 +2080,7 @@
       </c>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="89" t="s">
         <v>9</v>
       </c>
@@ -2099,7 +2095,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="89" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2110,7 @@
       </c>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="89" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2126,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="2:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="95" t="s">
         <v>11</v>
       </c>
@@ -2157,11 +2153,11 @@
         <v>15877.03</v>
       </c>
     </row>
-    <row r="33" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B34" s="81">
         <v>3</v>
       </c>
@@ -2180,14 +2176,14 @@
       <c r="M34" s="1"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="15"/>
       <c r="I35" s="16" t="s">
         <v>20</v>
       </c>
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="18"/>
       <c r="D36" s="30">
         <f>E36-1</f>
@@ -2234,7 +2230,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="37" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="89" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2273,7 @@
         <v>15047.803994157877</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="89" t="s">
         <v>62</v>
       </c>
@@ -2320,7 +2316,7 @@
         <v>2257.1705991236813</v>
       </c>
     </row>
-    <row r="39" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>82</v>
       </c>
@@ -2366,7 +2362,7 @@
         <v>-481.52972781305209</v>
       </c>
     </row>
-    <row r="40" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
@@ -2412,7 +2408,7 @@
         <v>-57.876169208299508</v>
       </c>
     </row>
-    <row r="41" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="89" t="s">
         <v>63</v>
       </c>
@@ -2443,7 +2439,7 @@
         <v>-629.87338798171447</v>
       </c>
     </row>
-    <row r="42" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="89" t="s">
         <v>26</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>-270.44851100296302</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="131" t="s">
         <v>85</v>
       </c>
@@ -2508,11 +2504,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="89"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="18" t="s">
         <v>37</v>
       </c>
@@ -2521,7 +2517,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="89" t="s">
         <v>30</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>-451.43411982473629</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="89" t="s">
         <v>31</v>
       </c>
@@ -2589,7 +2585,7 @@
         <v>1175.8630913172306</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
@@ -2600,13 +2596,13 @@
       <c r="J48" s="23"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="18" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="89" t="s">
         <v>33</v>
       </c>
@@ -2650,7 +2646,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="89" t="s">
         <v>34</v>
       </c>
@@ -2694,7 +2690,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="89" t="s">
         <v>35</v>
       </c>
@@ -2738,7 +2734,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="89" t="s">
         <v>36</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>-3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="89" t="s">
         <v>89</v>
       </c>
@@ -2826,7 +2822,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="92" t="s">
         <v>29</v>
       </c>
@@ -2852,8 +2848,8 @@
         <v>-0.23</v>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:14" ht="13.9" x14ac:dyDescent="0.25">
       <c r="B57" s="81">
         <v>4</v>
       </c>
@@ -2872,14 +2868,14 @@
       <c r="M57" s="1"/>
       <c r="N57" s="10"/>
     </row>
-    <row r="58" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="33"/>
       <c r="I58" s="16" t="s">
         <v>20</v>
       </c>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="33"/>
       <c r="D59" s="30">
         <f t="shared" ref="D59:N59" si="17">D36</f>
@@ -2926,7 +2922,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="89" t="s">
         <v>51</v>
       </c>
@@ -2957,7 +2953,7 @@
         <v>2.3776836028444697</v>
       </c>
     </row>
-    <row r="61" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="89" t="s">
         <v>52</v>
       </c>
@@ -2972,7 +2968,7 @@
         <v>3.0939332208131587</v>
       </c>
       <c r="K61" s="163">
-        <f t="shared" ref="J61:N61" ca="1" si="19">IFERROR(SUM(K81:K83)/K38,0)</f>
+        <f t="shared" ref="K61:N61" ca="1" si="19">IFERROR(SUM(K81:K83)/K38,0)</f>
         <v>2.6981400188090818</v>
       </c>
       <c r="L61" s="163">
@@ -2988,7 +2984,7 @@
         <v>1.4349103801088154</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="89" t="s">
         <v>54</v>
       </c>
@@ -3003,7 +2999,7 @@
         <v>2.0047043834223186</v>
       </c>
       <c r="K62" s="163">
-        <f t="shared" ref="J62:N62" ca="1" si="20">-IFERROR(K38/K41,0)</f>
+        <f t="shared" ref="K62:N62" ca="1" si="20">-IFERROR(K38/K41,0)</f>
         <v>2.5647015018308799</v>
       </c>
       <c r="L62" s="163">
@@ -3019,7 +3015,7 @@
         <v>3.5835306621800127</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="92" t="s">
         <v>27</v>
       </c>
@@ -3034,7 +3030,7 @@
         <v>1.5770341149588907</v>
       </c>
       <c r="K63" s="166">
-        <f t="shared" ref="J63:N63" ca="1" si="21">-IFERROR(SUM(K38,K39)/K41,0)</f>
+        <f t="shared" ref="K63:N63" ca="1" si="21">-IFERROR(SUM(K38,K39)/K41,0)</f>
         <v>2.017565181440292</v>
       </c>
       <c r="L63" s="166">
@@ -3050,7 +3046,7 @@
         <v>2.8190441209149433</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
@@ -3082,14 +3078,14 @@
       <c r="M65" s="1"/>
       <c r="N65" s="10"/>
     </row>
-    <row r="66" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="33"/>
       <c r="I66" s="16" t="s">
         <v>20</v>
       </c>
       <c r="N66" s="5"/>
     </row>
-    <row r="67" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="33"/>
       <c r="D67" s="30">
         <f t="shared" ref="D67:N67" si="22">D59</f>
@@ -3136,7 +3132,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="68" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="89" t="s">
         <v>87</v>
       </c>
@@ -3159,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="89" t="s">
         <v>88</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="3"/>
       <c r="J70" s="71"/>
       <c r="K70" s="71" t="s">
@@ -3249,7 +3245,7 @@
         <v>-343.42247764099557</v>
       </c>
     </row>
-    <row r="71" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="33" t="s">
         <v>58</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="89" t="str">
         <f>C23</f>
         <v>Term Loan A</v>
@@ -3334,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="89" t="str">
         <f>C24</f>
         <v>Term Loan B</v>
@@ -3389,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="89" t="str">
         <f>C25</f>
         <v>Senior Notes</v>
@@ -3444,7 +3440,7 @@
         <v>6666.8375223590047</v>
       </c>
     </row>
-    <row r="75" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="89" t="str">
         <f>C26</f>
         <v>Junior/Subordinated Notes</v>
@@ -3475,7 +3471,7 @@
       </c>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="89" t="str">
         <f>C27</f>
         <v>Other Debt</v>
@@ -3509,7 +3505,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="3"/>
       <c r="I77" s="21"/>
       <c r="J77" s="21"/>
@@ -3522,7 +3518,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="130" t="s">
         <v>86</v>
       </c>
@@ -3556,7 +3552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="3"/>
       <c r="I79" s="21"/>
       <c r="J79" s="21"/>
@@ -3565,7 +3561,7 @@
       <c r="M79" s="21"/>
       <c r="N79" s="22"/>
     </row>
-    <row r="80" spans="2:21" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="33" t="s">
         <v>59</v>
       </c>
@@ -3574,7 +3570,7 @@
       </c>
       <c r="N80" s="22"/>
     </row>
-    <row r="81" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="89" t="s">
         <v>2</v>
       </c>
@@ -3609,7 +3605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="89" t="str">
         <f>C72</f>
         <v>Term Loan A</v>
@@ -3643,7 +3639,7 @@
       </c>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="89" t="str">
         <f>C73</f>
         <v>Term Loan B</v>
@@ -3677,7 +3673,7 @@
       </c>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="89" t="s">
         <v>53</v>
       </c>
@@ -3713,7 +3709,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="89" t="str">
         <f>C75</f>
         <v>Junior/Subordinated Notes</v>
@@ -3747,7 +3743,7 @@
       </c>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="89" t="str">
         <f>C76</f>
         <v>Other Debt</v>
@@ -3781,7 +3777,7 @@
       </c>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="129" t="s">
         <v>57</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>6666.8375223590047</v>
       </c>
     </row>
-    <row r="88" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="3"/>
       <c r="I88" s="21"/>
       <c r="J88" s="110"/>
@@ -3824,7 +3820,7 @@
       <c r="M88" s="110"/>
       <c r="N88" s="111"/>
     </row>
-    <row r="89" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="37" t="s">
         <v>66</v>
       </c>
@@ -3855,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="3"/>
       <c r="I90" s="21"/>
       <c r="J90" s="110"/>
@@ -3864,7 +3860,7 @@
       <c r="M90" s="110"/>
       <c r="N90" s="111"/>
     </row>
-    <row r="91" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="89" t="s">
         <v>68</v>
       </c>
@@ -3893,7 +3889,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="129" t="s">
         <v>60</v>
       </c>
@@ -3929,7 +3925,7 @@
         <v>5366.8375223590047</v>
       </c>
     </row>
-    <row r="93" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="15"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -3938,7 +3934,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="24"/>
     </row>
-    <row r="94" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="33" t="s">
         <v>38</v>
       </c>
@@ -3946,7 +3942,7 @@
       <c r="J94" s="21"/>
       <c r="N94" s="24"/>
     </row>
-    <row r="95" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="89" t="str">
         <f t="shared" ref="C95:C100" si="41">C22</f>
         <v>Revolver</v>
@@ -3960,7 +3956,7 @@
       <c r="M95" s="63"/>
       <c r="N95" s="64"/>
     </row>
-    <row r="96" spans="3:16" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:16" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="89" t="str">
         <f t="shared" si="41"/>
         <v>Term Loan A</v>
@@ -3983,7 +3979,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="97" spans="3:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="89" t="str">
         <f t="shared" si="41"/>
         <v>Term Loan B</v>
@@ -4005,7 +4001,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="98" spans="3:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="89" t="str">
         <f t="shared" si="41"/>
         <v>Senior Notes</v>
@@ -4027,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="89" t="str">
         <f t="shared" si="41"/>
         <v>Junior/Subordinated Notes</v>
@@ -4049,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C100" s="89" t="str">
         <f t="shared" si="41"/>
         <v>Other Debt</v>
